--- a/public/files/Table/excel/规章制度.xlsx
+++ b/public/files/Table/excel/规章制度.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65">
   <si>
     <t>id</t>
   </si>
@@ -160,6 +160,57 @@
   </si>
   <si>
     <t xml:space="preserve"> 2016-01-25 15:35:32 </t>
+  </si>
+  <si>
+    <t>新版PPT模板</t>
+  </si>
+  <si>
+    <t>借出证照审批表</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>2016-01-25 15:35:18</t>
+  </si>
+  <si>
+    <t>授权委托书申请表（2015）</t>
+  </si>
+  <si>
+    <t>李璐</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-12-06 20:18:58 </t>
+  </si>
+  <si>
+    <t>（2015年新版）法定代表人授权委托书样本</t>
+  </si>
+  <si>
+    <t>2015-12-06 20:18:24</t>
+  </si>
+  <si>
+    <t>中关村发展集团内部补充医疗费用报销审批单</t>
+  </si>
+  <si>
+    <t>2015-12-06 20:17:58</t>
+  </si>
+  <si>
+    <t>（2013版）合同执行情况表</t>
+  </si>
+  <si>
+    <t>2015-12-06 20:17:25</t>
+  </si>
+  <si>
+    <t>医疗保险理赔申请书</t>
+  </si>
+  <si>
+    <t>2015-12-06 20:16:52</t>
+  </si>
+  <si>
+    <t>公文格式示例（新版）</t>
+  </si>
+  <si>
+    <t>2015-12-06 20:14:1</t>
   </si>
 </sst>
 </file>
@@ -167,12 +218,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,6 +233,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -196,7 +284,68 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,62 +359,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,52 +381,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -334,31 +391,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -370,151 +553,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,26 +582,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -567,22 +604,42 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -611,17 +668,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -633,10 +690,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -645,137 +702,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -794,10 +851,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1148,13 +1202,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AA7"/>
+  <dimension ref="A1:AA15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="51.5" customWidth="1"/>
     <col min="4" max="4" width="28.75" customWidth="1"/>
@@ -1411,16 +1465,16 @@
       <c r="AA5" s="5"/>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="2" t="s">
         <v>44</v>
       </c>
       <c r="I6" s="5" t="s">
@@ -1428,21 +1482,354 @@
       </c>
     </row>
     <row r="7" spans="2:9">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="D7" s="5">
+        <v>13</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="5" t="s">
         <v>47</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>31</v>
       </c>
+    </row>
+    <row r="8" s="2" customFormat="1" spans="1:27">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5">
+        <v>13</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="5">
+        <v>30</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+    </row>
+    <row r="9" s="2" customFormat="1" spans="1:27">
+      <c r="A9" s="5"/>
+      <c r="B9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+    </row>
+    <row r="10" s="2" customFormat="1" spans="1:27">
+      <c r="A10" s="5"/>
+      <c r="B10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+    </row>
+    <row r="11" s="2" customFormat="1" spans="1:27">
+      <c r="A11" s="5"/>
+      <c r="B11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+    </row>
+    <row r="12" s="2" customFormat="1" spans="1:27">
+      <c r="A12" s="5"/>
+      <c r="B12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+    </row>
+    <row r="13" s="2" customFormat="1" spans="1:27">
+      <c r="A13" s="5"/>
+      <c r="B13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+    </row>
+    <row r="14" s="2" customFormat="1" spans="1:27">
+      <c r="A14" s="5"/>
+      <c r="B14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+    </row>
+    <row r="15" s="2" customFormat="1" spans="1:27">
+      <c r="A15" s="5"/>
+      <c r="B15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
